--- a/src/test/resources/SAI_BOOK1.xlsx
+++ b/src/test/resources/SAI_BOOK1.xlsx
@@ -3,18 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FF27D84E-DF27-4E0D-88CB-06AD7BE6E909}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{94CA6361-70D6-48B2-B41C-50D62C3B0B5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="690" windowWidth="15375" windowHeight="7875" xr2:uid="{B3249E43-D7CE-4344-B725-1CA14FDB52CC}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15405" windowHeight="11280" firstSheet="1" activeTab="1" xr2:uid="{B3249E43-D7CE-4344-B725-1CA14FDB52CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G8"/>
+  <oleSize ref="A1:G7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>email</t>
   </si>
@@ -553,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F9EB28-1723-472A-9AF1-9E1396CE4E34}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -645,11 +646,157 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E785652-EC57-47A8-A353-C5DBA6BF17A0}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1234554322</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1234554322</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1234554322</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1234554322</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>700</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1234554322</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>900</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1234554322</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1234554322</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1300</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1234554322</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1500</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048CAD36-8526-4A7E-88AE-CA3D0DD8C0DF}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,7 +937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47847F90-78A9-4407-940A-64F724BE5497}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -931,7 +1078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309922B5-0889-4470-AB4A-B9A1C9F7F028}">
   <dimension ref="A1:E9"/>
   <sheetViews>
